--- a/xlsx/country_comparison/transfer_how_above_one.xlsx
+++ b/xlsx/country_comparison/transfer_how_above_one.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -444,13 +447,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.137659229699331</v>
+        <v>0.157348964754254</v>
       </c>
       <c r="C2" t="n">
         <v>0.137081532708119</v>
@@ -480,18 +486,21 @@
         <v>0.0761995819812651</v>
       </c>
       <c r="L2" t="n">
+        <v>0.278167629188499</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.364981540363464</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.142553376890107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0949856393775639</v>
+        <v>0.116393883301067</v>
       </c>
       <c r="C3" t="n">
         <v>0.083205088017841</v>
@@ -521,18 +530,21 @@
         <v>0.0726142155494574</v>
       </c>
       <c r="L3" t="n">
+        <v>0.247757531999504</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.239720925034205</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.104494350112888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0865311988872075</v>
+        <v>0.0826712683704868</v>
       </c>
       <c r="C4" t="n">
         <v>0.0914744603590491</v>
@@ -562,18 +574,21 @@
         <v>0.0197396095632906</v>
       </c>
       <c r="L4" t="n">
+        <v>0.0589862544006013</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.234119667994869</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.0942815675146304</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0761156701346218</v>
+        <v>0.071542427531179</v>
       </c>
       <c r="C5" t="n">
         <v>0.0737320101254914</v>
@@ -585,7 +600,7 @@
         <v>0.0961152526793061</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0624489863806241</v>
+        <v>0.062448986380624</v>
       </c>
       <c r="G5" t="n">
         <v>0.0375660864931227</v>
@@ -597,30 +612,33 @@
         <v>0.0865630776376734</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0587466668103379</v>
+        <v>0.058746666810338</v>
       </c>
       <c r="K5" t="n">
         <v>0.0406589767442012</v>
       </c>
       <c r="L5" t="n">
+        <v>0.0434804418345451</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.17257709274564</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.0843449327683208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0591840056712265</v>
+        <v>0.0549808384048869</v>
       </c>
       <c r="C6" t="n">
         <v>0.0644468953028247</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0718687212048466</v>
+        <v>0.0718687212048467</v>
       </c>
       <c r="E6" t="n">
         <v>0.0650557117486691</v>
@@ -644,18 +662,21 @@
         <v>0.0129650527868944</v>
       </c>
       <c r="L6" t="n">
+        <v>0.0291896810278893</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.156616347835126</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.0628596274433584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0472907089783835</v>
+        <v>0.0456021415826136</v>
       </c>
       <c r="C7" t="n">
         <v>0.0488395827214539</v>
@@ -685,18 +706,21 @@
         <v>0.0160117938000092</v>
       </c>
       <c r="L7" t="n">
+        <v>0.0352408819214217</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.139009625058519</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.0497969389655712</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0404605717035428</v>
+        <v>0.0391173147233123</v>
       </c>
       <c r="C8" t="n">
         <v>0.0373740399073223</v>
@@ -726,9 +750,12 @@
         <v>0.010534914543344</v>
       </c>
       <c r="L8" t="n">
+        <v>0.0308749227413617</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.154999919140394</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.0457049775218125</v>
       </c>
     </row>

--- a/xlsx/country_comparison/transfer_how_above_one.xlsx
+++ b/xlsx/country_comparison/transfer_how_above_one.xlsx
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.157348964754254</v>
+        <v>0.158554560563064</v>
       </c>
       <c r="C2" t="n">
         <v>0.137081532708119</v>
@@ -483,16 +483,16 @@
         <v>0.122123681551223</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0761995819812651</v>
+        <v>0.0761309064869961</v>
       </c>
       <c r="L2" t="n">
-        <v>0.278167629188499</v>
+        <v>0.286786573395475</v>
       </c>
       <c r="M2" t="n">
         <v>0.364981540363464</v>
       </c>
       <c r="N2" t="n">
-        <v>0.142553376890107</v>
+        <v>0.142637526134715</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116393883301067</v>
+        <v>0.116851853607766</v>
       </c>
       <c r="C3" t="n">
         <v>0.083205088017841</v>
@@ -527,16 +527,16 @@
         <v>0.0884955535748045</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0726142155494574</v>
+        <v>0.0725237685072292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.247757531999504</v>
+        <v>0.251129621666901</v>
       </c>
       <c r="M3" t="n">
         <v>0.239720925034205</v>
       </c>
       <c r="N3" t="n">
-        <v>0.104494350112888</v>
+        <v>0.104534936160411</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0826712683704868</v>
+        <v>0.0829083659428993</v>
       </c>
       <c r="C4" t="n">
         <v>0.0914744603590491</v>
@@ -571,16 +571,16 @@
         <v>0.0952234653956179</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0197396095632906</v>
+        <v>0.0197498970784084</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0589862544006013</v>
+        <v>0.0606228458463316</v>
       </c>
       <c r="M4" t="n">
         <v>0.234119667994869</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0942815675146304</v>
+        <v>0.0942557965998385</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.071542427531179</v>
+        <v>0.0714895172677557</v>
       </c>
       <c r="C5" t="n">
         <v>0.0737320101254914</v>
@@ -600,7 +600,7 @@
         <v>0.0961152526793061</v>
       </c>
       <c r="F5" t="n">
-        <v>0.062448986380624</v>
+        <v>0.0624489863806241</v>
       </c>
       <c r="G5" t="n">
         <v>0.0375660864931227</v>
@@ -615,16 +615,16 @@
         <v>0.058746666810338</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0406589767442012</v>
+        <v>0.040688726015579</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0434804418345451</v>
+        <v>0.0431192561344624</v>
       </c>
       <c r="M5" t="n">
         <v>0.17257709274564</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0843449327683208</v>
+        <v>0.0842750030357131</v>
       </c>
     </row>
     <row r="6">
@@ -632,13 +632,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0549808384048869</v>
+        <v>0.05450527325568</v>
       </c>
       <c r="C6" t="n">
         <v>0.0644468953028247</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0718687212048467</v>
+        <v>0.0718687212048466</v>
       </c>
       <c r="E6" t="n">
         <v>0.0650557117486691</v>
@@ -659,16 +659,16 @@
         <v>0.0570018755996854</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0129650527868944</v>
+        <v>0.0129576420740687</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0291896810278893</v>
+        <v>0.0259958246698663</v>
       </c>
       <c r="M6" t="n">
         <v>0.156616347835126</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0628596274433584</v>
+        <v>0.0627440974232051</v>
       </c>
     </row>
     <row r="7">
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0456021415826136</v>
+        <v>0.0455409606524207</v>
       </c>
       <c r="C7" t="n">
         <v>0.0488395827214539</v>
@@ -697,22 +697,22 @@
         <v>0.0481443849693981</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0487964302518535</v>
+        <v>0.0487964302518536</v>
       </c>
       <c r="J7" t="n">
         <v>0.0322698953452933</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0160117938000092</v>
+        <v>0.0160044958444441</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0352408819214217</v>
+        <v>0.0347523618529367</v>
       </c>
       <c r="M7" t="n">
         <v>0.139009625058519</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0497969389655712</v>
+        <v>0.0498049899179879</v>
       </c>
     </row>
     <row r="8">
@@ -720,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0391173147233123</v>
+        <v>0.0387328434737347</v>
       </c>
       <c r="C8" t="n">
         <v>0.0373740399073223</v>
@@ -747,16 +747,16 @@
         <v>0.0315452799186129</v>
       </c>
       <c r="K8" t="n">
-        <v>0.010534914543344</v>
+        <v>0.0105116378040686</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0308749227413617</v>
+        <v>0.0282733934651745</v>
       </c>
       <c r="M8" t="n">
         <v>0.154999919140394</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0457049775218125</v>
+        <v>0.0456258132835108</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/transfer_how_above_one.xlsx
+++ b/xlsx/country_comparison/transfer_how_above_one.xlsx
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.158554560563064</v>
+        <v>0.158605582712966</v>
       </c>
       <c r="C2" t="n">
         <v>0.137081532708119</v>
@@ -486,7 +486,7 @@
         <v>0.0761309064869961</v>
       </c>
       <c r="L2" t="n">
-        <v>0.286786573395475</v>
+        <v>0.287151150769643</v>
       </c>
       <c r="M2" t="n">
         <v>0.364981540363464</v>
@@ -500,7 +500,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116851853607766</v>
+        <v>0.117081892415779</v>
       </c>
       <c r="C3" t="n">
         <v>0.083205088017841</v>
@@ -530,13 +530,13 @@
         <v>0.0725237685072292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.251129621666901</v>
+        <v>0.252773357666726</v>
       </c>
       <c r="M3" t="n">
         <v>0.239720925034205</v>
       </c>
       <c r="N3" t="n">
-        <v>0.104534936160411</v>
+        <v>0.10453493616041</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0829083659428993</v>
+        <v>0.0829796486054123</v>
       </c>
       <c r="C4" t="n">
         <v>0.0914744603590491</v>
@@ -574,7 +574,7 @@
         <v>0.0197498970784084</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0606228458463316</v>
+        <v>0.0611321941582442</v>
       </c>
       <c r="M4" t="n">
         <v>0.234119667994869</v>
@@ -588,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0714895172677557</v>
+        <v>0.0715168366863496</v>
       </c>
       <c r="C5" t="n">
         <v>0.0737320101254914</v>
@@ -618,7 +618,7 @@
         <v>0.040688726015579</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0431192561344624</v>
+        <v>0.0433144662915</v>
       </c>
       <c r="M5" t="n">
         <v>0.17257709274564</v>
@@ -632,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05450527325568</v>
+        <v>0.0545266932000654</v>
       </c>
       <c r="C6" t="n">
         <v>0.0644468953028247</v>
@@ -662,7 +662,7 @@
         <v>0.0129576420740687</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0259958246698663</v>
+        <v>0.026148880295587</v>
       </c>
       <c r="M6" t="n">
         <v>0.156616347835126</v>
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0455409606524207</v>
+        <v>0.0453245268068629</v>
       </c>
       <c r="C7" t="n">
         <v>0.0488395827214539</v>
@@ -697,7 +697,7 @@
         <v>0.0481443849693981</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0487964302518536</v>
+        <v>0.0487964302518535</v>
       </c>
       <c r="J7" t="n">
         <v>0.0322698953452933</v>
@@ -706,7 +706,7 @@
         <v>0.0160044958444441</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0347523618529367</v>
+        <v>0.0332058397395768</v>
       </c>
       <c r="M7" t="n">
         <v>0.139009625058519</v>
@@ -720,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0387328434737347</v>
+        <v>0.0387433784302984</v>
       </c>
       <c r="C8" t="n">
         <v>0.0373740399073223</v>
@@ -750,7 +750,7 @@
         <v>0.0105116378040686</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0282733934651745</v>
+        <v>0.0283486707086532</v>
       </c>
       <c r="M8" t="n">
         <v>0.154999919140394</v>
